--- a/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:24:46+00:00</t>
+    <t>2023-12-11T15:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -736,10 +736,7 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
+    <t>List of characteristics used to describe group members; e.g. gender, age, owner, location, etc.</t>
   </si>
   <si>
     <t>Group.characteristic.value[x]</t>
@@ -764,7 +761,23 @@
     <t>Value of descriptive member characteristic; e.g. red, male, pneumonia, Caucasian, etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>./value</t>
+  </si>
+  <si>
+    <t>Group.characteristic.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
   </si>
   <si>
     <t>Group.characteristic.exclude</t>
@@ -1179,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1188,9 +1201,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1212,7 +1225,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="75.2734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3686,11 +3699,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3731,10 +3746,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3757,19 +3772,19 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3797,28 +3812,26 @@
         <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3844,15 +3857,17 @@
         <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>84</v>
@@ -3867,19 +3882,19 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3904,13 +3919,11 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -3928,7 +3941,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -3943,7 +3956,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -3951,10 +3964,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3962,7 +3975,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -3977,18 +3990,20 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4036,10 +4051,10 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
@@ -4048,10 +4063,10 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4059,10 +4074,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4073,7 +4088,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4085,18 +4100,18 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4144,22 +4159,22 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4167,10 +4182,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4181,7 +4196,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4193,16 +4208,18 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4250,22 +4267,22 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4273,21 +4290,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4299,17 +4316,15 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4346,34 +4361,34 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4381,14 +4396,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4401,26 +4416,24 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4456,19 +4469,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4491,44 +4504,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4576,22 +4591,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4599,10 +4614,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4610,7 +4625,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
@@ -4625,7 +4640,7 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>268</v>
@@ -4634,17 +4649,13 @@
         <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O32" t="s" s="2">
         <v>270</v>
       </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4688,10 +4699,10 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>84</v>
@@ -4700,10 +4711,10 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4711,10 +4722,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4737,24 +4748,26 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
       </c>
@@ -4798,7 +4811,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4810,12 +4823,122 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:49:53+00:00</t>
+    <t>2024-01-10T17:41:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -736,7 +736,10 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>List of characteristics used to describe group members; e.g. gender, age, owner, location, etc.</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-group-characteristic-kind-vs</t>
   </si>
   <si>
     <t>Group.characteristic.value[x]</t>
@@ -772,9 +775,6 @@
   </si>
   <si>
     <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
@@ -1225,8 +1225,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.36328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.8359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3699,13 +3699,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y23" t="s" s="2">
         <v>231</v>
       </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3746,10 +3744,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3772,19 +3770,19 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3812,7 +3810,7 @@
         <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3821,7 +3819,7 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -3831,7 +3829,7 @@
         <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3846,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3854,13 +3852,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
@@ -3885,16 +3883,16 @@
         <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3919,7 +3917,7 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
@@ -3941,7 +3939,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -3956,7 +3954,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>

--- a/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/StructureDefinition-eclaire-group.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-10T17:41:42+00:00</t>
+    <t>2024-01-11T08:51:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
